--- a/Anastasia.xlsx
+++ b/Anastasia.xlsx
@@ -1,25 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Library-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\New folder\Library-main\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F632A6F-3414-497D-8BD1-D84546F7896F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
+    <workbookView xWindow="4605" yWindow="0" windowWidth="19395" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
   <si>
     <t>№</t>
   </si>
@@ -61,13 +65,25 @@
   </si>
   <si>
     <t>стр.250</t>
+  </si>
+  <si>
+    <t>Сонета 11</t>
+  </si>
+  <si>
+    <t>Сонета 12</t>
+  </si>
+  <si>
+    <t>Сонета 13</t>
+  </si>
+  <si>
+    <t>Сонета 14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,23 +97,41 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -109,24 +143,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,94 +470,273 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="59.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="59.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="8">
         <v>44492</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="8">
         <v>44510</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="10" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="8">
         <v>44573</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="9" t="s">
         <v>13</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>44492</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8">
+        <v>44510</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8">
+        <v>44573</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8">
+        <v>44492</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8">
+        <v>44510</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8">
+        <v>44573</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8">
+        <v>44492</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8">
+        <v>44510</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8">
+        <v>44573</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8">
+        <v>44492</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Anastasia.xlsx
+++ b/Anastasia.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\New folder\Library-main\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\lib\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F632A6F-3414-497D-8BD1-D84546F7896F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13399BD0-6AD4-4932-9FD9-59569AF2D6CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4605" yWindow="0" windowWidth="19395" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,7 +131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -139,36 +139,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,7 +493,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E14" sqref="A1:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,249 +506,249 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="11">
         <v>44492</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="10">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="11">
         <v>44510</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="10">
         <v>3</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="11">
         <v>44573</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="11">
         <v>44492</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="11">
         <v>44510</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="10">
         <v>6</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="11">
         <v>44573</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="10">
         <v>7</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="11">
         <v>44492</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="11">
         <v>44510</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="10">
         <v>9</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="11">
         <v>44573</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="11">
         <v>44492</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="11">
         <v>44510</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="10">
         <v>12</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="11">
         <v>44573</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="10">
         <v>13</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="11">
         <v>44492</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="12" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
